--- a/iban.xlsx
+++ b/iban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartanus\Code\icdph-iban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB6CE25-C558-4C08-AAB8-6210FAA29387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD1338-5814-45BC-9982-2530DB18DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,6 +100,15 @@
     <t>SK9011000000002623007312</t>
   </si>
   <si>
+    <t>SK2820569154</t>
+  </si>
+  <si>
+    <t>CHYBNÁ POLOŽKA, s.r.o.</t>
+  </si>
+  <si>
+    <t>IČ DPH nebolo nájdené</t>
+  </si>
+  <si>
     <t>Kia Slovakia s. r. o.</t>
   </si>
   <si>
@@ -473,15 +482,6 @@
   </si>
   <si>
     <t>SK8102000000003207049155</t>
-  </si>
-  <si>
-    <t>SK2820569154</t>
-  </si>
-  <si>
-    <t>CHYBNÁ POLOŽKA, s.r.o.</t>
-  </si>
-  <si>
-    <t>IČ DPH nebolo nájdené</t>
   </si>
   <si>
     <t>Skupina DPH zastupovaná: U. S. Steel Košice, s.r.o.</t>
@@ -1580,9 +1580,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
@@ -1596,7 +1598,7 @@
     <col min="10" max="10" width="20.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1680,615 +1682,615 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="G21" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="H21" t="s">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="H23" t="s">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>103</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="E62" t="s">
+      <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="F62" t="s">
+      <c r="C63" t="s">
         <v>106</v>
       </c>
-      <c r="G62" t="s">
+      <c r="D63" t="s">
         <v>107</v>
       </c>
-      <c r="H62" t="s">
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" t="s">
         <v>129</v>
       </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>130</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>131</v>
       </c>
-      <c r="E83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="B84" t="s">
         <v>132</v>
       </c>
-      <c r="G83" t="s">
+      <c r="C84" t="s">
         <v>133</v>
       </c>
-      <c r="H83" t="s">
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84" t="s">
+        <v>135</v>
+      </c>
+      <c r="G84" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J101" s="1" t="s">
+    </row>
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>154</v>
       </c>
@@ -2311,167 +2313,167 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>192</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>195</v>
       </c>
       <c r="E135" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F135" t="s">
         <v>196</v>
@@ -2497,82 +2499,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>213</v>
       </c>
@@ -2586,7 +2588,7 @@
         <v>216</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F151" t="s">
         <v>217</v>
@@ -2598,72 +2600,72 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>232</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>234</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F165" t="s">
         <v>235</v>
@@ -2686,112 +2688,112 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>258</v>
       </c>
@@ -2817,37 +2819,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>271</v>
       </c>
@@ -2873,22 +2875,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>281</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>288</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>291</v>
       </c>
       <c r="E199" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F199" t="s">
         <v>292</v>
@@ -2940,167 +2942,167 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>326</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>329</v>
       </c>
       <c r="E232" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F232" t="s">
         <v>330</v>
@@ -3126,127 +3128,127 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>356</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="E257" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F257" t="s">
         <v>360</v>
@@ -3272,62 +3274,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>373</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>376</v>
       </c>
       <c r="E269" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F269" t="s">
         <v>377</v>
@@ -3353,57 +3355,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>388</v>
       </c>
